--- a/npm_modules/10PROFE-ALL-DESIGN- videos.xlsx
+++ b/npm_modules/10PROFE-ALL-DESIGN- videos.xlsx
@@ -771,13 +771,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="3"/>
+    <col min="1" max="1" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
